--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484020.6716759825</v>
+        <v>481499.1670854638</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.1087982411835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>159.0138835439126</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>83.68778481751956</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>26.30660220273212</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>252.5062532483145</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>81.4596544911732</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.233571177955964</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4682886668214</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329276</v>
       </c>
       <c r="F8" t="n">
-        <v>245.4797360196702</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6293919502451603</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.4908548265388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.24923305751699</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1658,10 +1658,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699806</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520956</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.22340015155905</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189012</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>117.6579322793572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>174.9868265178721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.91051008678056</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2401.719244012364</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2148.138183276544</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2148.138183276544</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2148.138183276544</v>
+        <v>1559.717415475767</v>
       </c>
       <c r="X2" t="n">
-        <v>1774.672425015464</v>
+        <v>1186.251657214687</v>
       </c>
       <c r="Y2" t="n">
-        <v>1774.672425015464</v>
+        <v>796.1123252388754</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1087.683159487371</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.683159487371</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.683159487371</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>1087.683159487371</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.262284242502</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526515</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.262284242502</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.262284242502</v>
+        <v>1485.986492286525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2683391907245</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C7" t="n">
-        <v>506.3321562628176</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>356.2155168504819</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>208.3024232680888</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>208.3024232680888</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1363.692725037735</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1140.71424423247</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>851.5959067363079</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>596.9114185304211</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>596.9114185304211</v>
       </c>
       <c r="X7" t="n">
-        <v>896.0609183342547</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.2683391907245</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1480.516858765519</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1111.554341825107</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>753.2886432183566</v>
+        <v>953.6440892486874</v>
       </c>
       <c r="E8" t="n">
-        <v>367.5003906201123</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>856.8836457501499</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>856.8836457501499</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>123.3613429040496</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>542.9134462654469</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297704</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952728</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F19" t="n">
-        <v>295.5818533952728</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>128.3857541101527</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>128.3857541101527</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597614</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>261.8464821474257</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650326</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650326</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,31 +5908,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,19 +6835,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6932,22 +6932,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7491,13 +7491,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.0169020165195</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.670201890922245e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.6250434222971</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.26401002792657</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>52.01660326104854</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>118.6564717779744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295069</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819388</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459196</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>47.04243616700649</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>63.36835372228737</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>69.70496293143179</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>967421.4057186114</v>
+        <v>967421.4057186116</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631199</v>
+        <v>354580.0968631201</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26329,22 +26329,22 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="I2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>383394.6348527529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
@@ -26353,7 +26353,7 @@
         <v>383394.6348527528</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431799</v>
+        <v>92967.25326431802</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="H4" t="n">
+        <v>8727.256391744253</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-946076.7124169625</v>
+        <v>-946263.1058055012</v>
       </c>
       <c r="C6" t="n">
         <v>161534.931268707</v>
       </c>
       <c r="D6" t="n">
-        <v>1519.468520707727</v>
+        <v>1519.468520707655</v>
       </c>
       <c r="E6" t="n">
-        <v>-51867.61317025353</v>
+        <v>-51902.35109568902</v>
       </c>
       <c r="F6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116656</v>
       </c>
       <c r="G6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116659</v>
       </c>
       <c r="H6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116656</v>
       </c>
       <c r="I6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.110711666</v>
       </c>
       <c r="J6" t="n">
-        <v>105939.670827119</v>
+        <v>105904.9329016834</v>
       </c>
       <c r="K6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116658</v>
       </c>
       <c r="L6" t="n">
-        <v>225250.8786289107</v>
+        <v>225216.1407034751</v>
       </c>
       <c r="M6" t="n">
-        <v>188489.8207015898</v>
+        <v>188455.0827761541</v>
       </c>
       <c r="N6" t="n">
-        <v>273544.8486371016</v>
+        <v>273510.1107116659</v>
       </c>
       <c r="O6" t="n">
-        <v>273544.8486371014</v>
+        <v>273510.1107116657</v>
       </c>
       <c r="P6" t="n">
-        <v>273544.8486371015</v>
+        <v>273510.1107116658</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>326.2836927450274</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.6443014363212</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>265.5531838998934</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.19417169491601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>259.9205519184685</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>102.1767883723685</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>288.2714461872959</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0730288668482</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>26.19417169491604</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393341</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3963097220413</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087831</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.21880056249833</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673337</v>
+        <v>416.4300581532628</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,19 +32792,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,10 +34138,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,13 +34454,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>388.6189266346374</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531539</v>
+        <v>274.2960242312445</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
